--- a/medicine/Enfance/Gabriella_Csire/Gabriella_Csire.xlsx
+++ b/medicine/Enfance/Gabriella_Csire/Gabriella_Csire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriella Csire est une écrivaine roumaine d'expression hongroise, autrice de livres pour la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née dans une famille d'origine hongroise, elle déménagea à l'âge de deux ans avec ses parents à Cluj (Kolozsvár), où elle obtint son diplôme d'études secondaires (1954). Plus tard, elle fut diplômée de l'ancienne université Bolyai (université Babes-Bolyai) (1959), au département de langue et de littérature hongroises. En 1959, elle s'est installée à Bucarest, où elle a été rédactrice à l'Irodalmi Könyvkiadó (Editions nationales de littérature), puis à des journaux, pour la plupart des magazines pour jeunes : Tanügyi Újság (hu), Előre (hu) et Jóbarát (hu), et Cimbora entre 1990-92, où elle a travaillé comme rédactrice en chef. Elle a écrit des articles, des nouvelles, des contes de fées et des romans de fées et a traduit Le Petit Prince[1]. Elle est membre de l'Union des écrivains de Roumanie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née dans une famille d'origine hongroise, elle déménagea à l'âge de deux ans avec ses parents à Cluj (Kolozsvár), où elle obtint son diplôme d'études secondaires (1954). Plus tard, elle fut diplômée de l'ancienne université Bolyai (université Babes-Bolyai) (1959), au département de langue et de littérature hongroises. En 1959, elle s'est installée à Bucarest, où elle a été rédactrice à l'Irodalmi Könyvkiadó (Editions nationales de littérature), puis à des journaux, pour la plupart des magazines pour jeunes : Tanügyi Újság (hu), Előre (hu) et Jóbarát (hu), et Cimbora entre 1990-92, où elle a travaillé comme rédactrice en chef. Elle a écrit des articles, des nouvelles, des contes de fées et des romans de fées et a traduit Le Petit Prince. Elle est membre de l'Union des écrivains de Roumanie.
 Elle fut mariée au compositeur József Csire (hu) avec qui elle écrivit des livres.
 </t>
         </is>
